--- a/aula_condicao_na_celula_toda.xlsx
+++ b/aula_condicao_na_celula_toda.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Oliveira\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Oliveira\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071580F-0073-43D4-8757-48ED54FDED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA46DF08-8442-40ED-9ED6-E7B037205D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B17E5F0B-DA3A-4C18-B9CF-D3FEA245A879}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$C$1:$M$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="14">
   <si>
     <t>ANO</t>
   </si>
@@ -46,15 +49,48 @@
   <si>
     <t>DIA</t>
   </si>
+  <si>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SAIDA</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>VISTO</t>
+  </si>
+  <si>
+    <t>____:_____</t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t>FOLHA DE PONTO</t>
+  </si>
+  <si>
+    <t>CONTROLE</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>Nome :</t>
+  </si>
+  <si>
+    <t>Cargo:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +98,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -79,27 +147,297 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
+        <strike val="0"/>
+        <u val="none"/>
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -123,7 +461,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -133,7 +471,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -143,7 +481,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -202,6 +550,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$U$2" max="2028" min="2024" page="10" val="2024"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$U$3" max="12" min="1" page="10" val="10"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Spinner 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>144780</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>472440</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Spinner 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,474 +981,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653CEB6A-FCCB-4F25-AD0E-551999D288D0}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653CEB6A-FCCB-4F25-AD0E-551999D288D0}">
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="3" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="P1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="Q2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C2,"/",_xlfn.CONCAT(C1)))</f>
-        <v>2/5/2024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f>IF(DAY(A5)&lt;EOMONTH(A5,0),A5+1,"")</f>
-        <v>45415</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="30" t="str">
+        <f>_xlfn.CONCAT(TEXT(DATE(U2,U3,1),"DD/MM/AAAA"),"  ATÉ   ",_xlfn.CONCAT(TEXT(EOMONTH(DATE(U2,U3,1),0),"DD/MM/AAAA")))</f>
+        <v>01/10/2024  ATÉ   31/10/2024</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f>DATE(U2,U3,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>IF(DAY(A6)&lt;EOMONTH(A6,0),A6+1,"")</f>
+        <v>45567</v>
+      </c>
+      <c r="C7" s="14" t="str">
         <f>_xlfn.CONCAT(TEXT(A6,"dd"),"-",_xlfn.CONCAT(TEXT(A6,"ddd")))</f>
-        <v>03-sex</v>
-      </c>
-      <c r="D6" t="str">
+        <v>01-ter</v>
+      </c>
+      <c r="D7" s="3" t="str">
         <f>TEXT(A6,"ddd")</f>
+        <v>ter</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" ref="J7:J22" si="0">_xlfn.CONCAT(TEXT(L7,"dd"),"-",_xlfn.CONCAT(TEXT(L7,"ddd")))</f>
+        <v>17-qui</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f>TEXT(L7,"ddd")</f>
+        <v>qui</v>
+      </c>
+      <c r="L7" s="4">
+        <f>A21+1</f>
+        <v>45582</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A21" si="1">IF(DAY(A7)&lt;EOMONTH(A7,0),A7+1,"")</f>
+        <v>45568</v>
+      </c>
+      <c r="C8" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A7,"dd"),"-",_xlfn.CONCAT(TEXT(A7,"ddd")))</f>
+        <v>02-qua</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>TEXT(A7,"ddd")</f>
+        <v>qua</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>18-sex</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" ref="K8:K22" si="2">TEXT(L8,"ddd")</f>
         <v>sex</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" ref="A7:A34" si="0">IF(DAY(A6)&lt;EOMONTH(A6,0),A6+1,"")</f>
-        <v>45416</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C34" si="1">_xlfn.CONCAT(TEXT(A7,"dd"),"-",_xlfn.CONCAT(TEXT(A7,"ddd")))</f>
-        <v>04-sáb</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D34" si="2">TEXT(A7,"ddd")</f>
+      <c r="L8" s="4">
+        <f>IF(DAY(L7)&lt;EOMONTH(L7,0),L7+1,"")</f>
+        <v>45583</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>45569</v>
+      </c>
+      <c r="C9" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A8,"dd"),"-",_xlfn.CONCAT(TEXT(A8,"ddd")))</f>
+        <v>03-qui</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>TEXT(A8,"ddd")</f>
+        <v>qui</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19-sáb</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>sáb</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L21" si="3">IF(DAY(L8)&lt;EOMONTH(L8,0),L8+1,"")</f>
+        <v>45584</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>45570</v>
+      </c>
+      <c r="C10" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A9,"dd"),"-",_xlfn.CONCAT(TEXT(A9,"ddd")))</f>
+        <v>04-sex</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>TEXT(A9,"ddd")</f>
+        <v>sex</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45417</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>05-dom</v>
-      </c>
-      <c r="D8" t="str">
+        <v>20-dom</v>
+      </c>
+      <c r="K10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>dom</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>45585</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>45571</v>
+      </c>
+      <c r="C11" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A10,"dd"),"-",_xlfn.CONCAT(TEXT(A10,"ddd")))</f>
+        <v>05-sáb</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>TEXT(A10,"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45418</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>06-seg</v>
-      </c>
-      <c r="D9" t="str">
+        <v>21-seg</v>
+      </c>
+      <c r="K11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>seg</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>45586</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>45572</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A11,"dd"),"-",_xlfn.CONCAT(TEXT(A11,"ddd")))</f>
+        <v>06-dom</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>TEXT(A11,"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45419</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>07-ter</v>
-      </c>
-      <c r="D10" t="str">
+        <v>22-ter</v>
+      </c>
+      <c r="K12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ter</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>45587</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>45573</v>
+      </c>
+      <c r="C13" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A12,"dd"),"-",_xlfn.CONCAT(TEXT(A12,"ddd")))</f>
+        <v>07-seg</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>TEXT(A12,"ddd")</f>
+        <v>seg</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45420</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>08-qua</v>
-      </c>
-      <c r="D11" t="str">
+        <v>23-qua</v>
+      </c>
+      <c r="K13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>qua</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>45588</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>45574</v>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A13,"dd"),"-",_xlfn.CONCAT(TEXT(A13,"ddd")))</f>
+        <v>08-ter</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>TEXT(A13,"ddd")</f>
+        <v>ter</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45421</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>09-qui</v>
-      </c>
-      <c r="D12" t="str">
+        <v>24-qui</v>
+      </c>
+      <c r="K14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>qui</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>45589</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>45575</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A14,"dd"),"-",_xlfn.CONCAT(TEXT(A14,"ddd")))</f>
+        <v>09-qua</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>TEXT(A14,"ddd")</f>
+        <v>qua</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45422</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>10-sex</v>
-      </c>
-      <c r="D13" t="str">
+        <v>25-sex</v>
+      </c>
+      <c r="K15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>sex</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>45590</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>45576</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A15,"dd"),"-",_xlfn.CONCAT(TEXT(A15,"ddd")))</f>
+        <v>10-qui</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>TEXT(A15,"ddd")</f>
+        <v>qui</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45423</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>11-sáb</v>
-      </c>
-      <c r="D14" t="str">
+        <v>26-sáb</v>
+      </c>
+      <c r="K16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>sáb</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>45591</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>45577</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A16,"dd"),"-",_xlfn.CONCAT(TEXT(A16,"ddd")))</f>
+        <v>11-sex</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>TEXT(A16,"ddd")</f>
+        <v>sex</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45424</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>12-dom</v>
-      </c>
-      <c r="D15" t="str">
+        <v>27-dom</v>
+      </c>
+      <c r="K17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>dom</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
+        <v>45592</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>45578</v>
+      </c>
+      <c r="C18" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A17,"dd"),"-",_xlfn.CONCAT(TEXT(A17,"ddd")))</f>
+        <v>12-sáb</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>TEXT(A17,"ddd")</f>
+        <v>sáb</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45425</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>13-seg</v>
-      </c>
-      <c r="D16" t="str">
+        <v>28-seg</v>
+      </c>
+      <c r="K18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>seg</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>45593</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="C19" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A18,"dd"),"-",_xlfn.CONCAT(TEXT(A18,"ddd")))</f>
+        <v>13-dom</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f>TEXT(A18,"ddd")</f>
+        <v>dom</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45426</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>14-ter</v>
-      </c>
-      <c r="D17" t="str">
+        <v>29-ter</v>
+      </c>
+      <c r="K19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ter</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="L19" s="4">
+        <f t="shared" si="3"/>
+        <v>45594</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>45580</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A19,"dd"),"-",_xlfn.CONCAT(TEXT(A19,"ddd")))</f>
+        <v>14-seg</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f>TEXT(A19,"ddd")</f>
+        <v>seg</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45427</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>15-qua</v>
-      </c>
-      <c r="D18" t="str">
+        <v>30-qua</v>
+      </c>
+      <c r="K20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>qua</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>45595</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>45581</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A20,"dd"),"-",_xlfn.CONCAT(TEXT(A20,"ddd")))</f>
+        <v>15-ter</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f>TEXT(A20,"ddd")</f>
+        <v>ter</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45428</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>16-qui</v>
-      </c>
-      <c r="D19" t="str">
+        <v>31-qui</v>
+      </c>
+      <c r="K21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>qui</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="L21" s="4">
+        <f t="shared" si="3"/>
+        <v>45596</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="str">
+        <f>_xlfn.CONCAT(TEXT(A21,"dd"),"-",_xlfn.CONCAT(TEXT(A21,"ddd")))</f>
+        <v>16-qua</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>TEXT(A21,"ddd")</f>
+        <v>qua</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45429</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>17-sex</v>
-      </c>
-      <c r="D20" t="str">
+        <v>01-sex</v>
+      </c>
+      <c r="K22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>sex</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>45430</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>18-sáb</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>sáb</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>45431</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>19-dom</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>dom</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>45432</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>20-seg</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>seg</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>45433</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>21-ter</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>ter</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>45434</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>22-qua</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>qua</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>45435</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>23-qui</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>qui</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>45436</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>24-sex</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>sex</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>45437</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>25-sáb</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>sáb</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>45438</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>26-dom</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>dom</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>45439</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>27-seg</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>seg</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>45440</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>28-ter</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>ter</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>45441</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>29-qua</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>qua</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>45442</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>30-qui</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>qui</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>45443</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>31-sex</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>sex</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="L22" s="4">
+        <f t="shared" ref="L22" si="4">IF(DAY(L21)&lt;EOMONTH(L21,0),L21+1,"")</f>
+        <v>45597</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18">
+        <f>DATE(U2,U3,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:M34">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$D6="dom"</formula>
+  <mergeCells count="6">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F28:F1048576">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>$G28="dom"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D6="sáb"</formula>
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>$G28="sáb"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C27">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$D5="dom"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$D5="sáb"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:I22">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$D7="sáb"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="15">
+      <formula>$D7="dom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:O22">
+    <cfRule type="expression" dxfId="5" priority="16">
+      <formula>$K7="dom"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="17">
+      <formula>$K7="sáb"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J22">
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>$K7="sáb"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>$K7="dom"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:O22">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>MONTH($I$27)&lt;&gt;MONTH(S18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M22">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>MONTH($I$27)&lt;&gt;MONTH(L19)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId4" name="Spinner 4">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId5" name="Spinner 5">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>144780</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>68580</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>472440</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>144780</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>